--- a/docs/StructureDefinition-DebtPortalChargeIteminterest.xlsx
+++ b/docs/StructureDefinition-DebtPortalChargeIteminterest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.6</t>
+    <t>1.4.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T11:22:00+00:00</t>
+    <t>2025-04-18T16:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DebtPortalChargeIteminterest.xlsx
+++ b/docs/StructureDefinition-DebtPortalChargeIteminterest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.10</t>
+    <t>1.4.15</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T16:44:16+00:00</t>
+    <t>2025-04-30T18:27:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DebtPortalChargeIteminterest.xlsx
+++ b/docs/StructureDefinition-DebtPortalChargeIteminterest.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$76</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2772" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2922" uniqueCount="489">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.15</t>
+    <t>1.5.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T18:27:21+00:00</t>
+    <t>2025-05-08T08:24:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -490,13 +490,6 @@
     <t>Allows identification of the charge Item as it is known by various participating systems and in a way that remains consistent across servers.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:$this}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Event.identifier</t>
   </si>
   <si>
@@ -507,15 +500,6 @@
   </si>
   <si>
     <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>ChargeItem.identifier:va-tn</t>
-  </si>
-  <si>
-    <t>va-tn</t>
-  </si>
-  <si>
-    <t>ChargeItem.identifier:va-tn.id</t>
   </si>
   <si>
     <t>ChargeItem.identifier.id</t>
@@ -537,9 +521,6 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>ChargeItem.identifier:va-tn.extension</t>
-  </si>
-  <si>
     <t>ChargeItem.identifier.extension</t>
   </si>
   <si>
@@ -553,12 +534,12 @@
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>Element.extension</t>
   </si>
   <si>
-    <t>ChargeItem.identifier:va-tn.use</t>
-  </si>
-  <si>
     <t>ChargeItem.identifier.use</t>
   </si>
   <si>
@@ -587,9 +568,6 @@
   </si>
   <si>
     <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>ChargeItem.identifier:va-tn.type</t>
   </si>
   <si>
     <t>ChargeItem.identifier.type</t>
@@ -626,19 +604,10 @@
     <t>CX.5</t>
   </si>
   <si>
-    <t>ChargeItem.identifier:va-tn.type.id</t>
-  </si>
-  <si>
     <t>ChargeItem.identifier.type.id</t>
   </si>
   <si>
-    <t>ChargeItem.identifier:va-tn.type.extension</t>
-  </si>
-  <si>
     <t>ChargeItem.identifier.type.extension</t>
-  </si>
-  <si>
-    <t>ChargeItem.identifier:va-tn.type.coding</t>
   </si>
   <si>
     <t>ChargeItem.identifier.type.coding</t>
@@ -669,9 +638,6 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
-    <t>ChargeItem.identifier:va-tn.type.text</t>
-  </si>
-  <si>
     <t>ChargeItem.identifier.type.text</t>
   </si>
   <si>
@@ -702,9 +668,6 @@
     <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
-    <t>ChargeItem.identifier:va-tn.system</t>
-  </si>
-  <si>
     <t>ChargeItem.identifier.system</t>
   </si>
   <si>
@@ -732,9 +695,6 @@
     <t>II.root or Role.id.root</t>
   </si>
   <si>
-    <t>ChargeItem.identifier:va-tn.value</t>
-  </si>
-  <si>
     <t>ChargeItem.identifier.value</t>
   </si>
   <si>
@@ -763,9 +723,6 @@
   </si>
   <si>
     <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>ChargeItem.identifier:va-tn.period</t>
   </si>
   <si>
     <t>ChargeItem.identifier.period</t>
@@ -790,9 +747,6 @@
     <t>Role.effectiveTime or implied by context</t>
   </si>
   <si>
-    <t>ChargeItem.identifier:va-tn.assigner</t>
-  </si>
-  <si>
     <t>ChargeItem.identifier.assigner</t>
   </si>
   <si>
@@ -818,60 +772,6 @@
     <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
-    <t>ChargeItem.identifier:va-bn</t>
-  </si>
-  <si>
-    <t>va-bn</t>
-  </si>
-  <si>
-    <t>ChargeItem.identifier:va-bn.id</t>
-  </si>
-  <si>
-    <t>ChargeItem.identifier:va-bn.extension</t>
-  </si>
-  <si>
-    <t>ChargeItem.identifier:va-bn.use</t>
-  </si>
-  <si>
-    <t>ChargeItem.identifier:va-bn.type</t>
-  </si>
-  <si>
-    <t>ChargeItem.identifier:va-bn.type.id</t>
-  </si>
-  <si>
-    <t>ChargeItem.identifier:va-bn.type.extension</t>
-  </si>
-  <si>
-    <t>ChargeItem.identifier:va-bn.type.coding</t>
-  </si>
-  <si>
-    <t>ChargeItem.identifier:va-bn.type.text</t>
-  </si>
-  <si>
-    <t>Bill Number</t>
-  </si>
-  <si>
-    <t>1995-1: fixed value = Bill Number</t>
-  </si>
-  <si>
-    <t>ChargeItem.identifier:va-bn.system</t>
-  </si>
-  <si>
-    <t>ChargeItem.identifier:va-bn.value</t>
-  </si>
-  <si>
-    <t>1995: source value based on AR TRANSACTION - BILL NUMBER (433-.03)</t>
-  </si>
-  <si>
-    <t>IB.ARTransaction.AccountsReceivableIEN,IB.ARTransaction.PatientIEN,IB.ARTransactionComment.PatientIEN,IB.ARTransactionDescription.PatientIEN,IB.ARTransactionFiscalYear.PatientIEN</t>
-  </si>
-  <si>
-    <t>ChargeItem.identifier:va-bn.period</t>
-  </si>
-  <si>
-    <t>ChargeItem.identifier:va-bn.assigner</t>
-  </si>
-  <si>
     <t>ChargeItem.definitionUri</t>
   </si>
   <si>
@@ -1510,6 +1410,134 @@
   </si>
   <si>
     <t>Event.supportingInfo</t>
+  </si>
+  <si>
+    <t>ChargeItem.supportingInformation.id</t>
+  </si>
+  <si>
+    <t>ChargeItem.supportingInformation.extension</t>
+  </si>
+  <si>
+    <t>ChargeItem.supportingInformation.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>ChargeItem.supportingInformation.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>ChargeItem.supportingInformation.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>ChargeItem.supportingInformation.identifier.id</t>
+  </si>
+  <si>
+    <t>ChargeItem.supportingInformation.identifier.extension</t>
+  </si>
+  <si>
+    <t>ChargeItem.supportingInformation.identifier.use</t>
+  </si>
+  <si>
+    <t>ChargeItem.supportingInformation.identifier.type</t>
+  </si>
+  <si>
+    <t>ChargeItem.supportingInformation.identifier.type.id</t>
+  </si>
+  <si>
+    <t>ChargeItem.supportingInformation.identifier.type.extension</t>
+  </si>
+  <si>
+    <t>ChargeItem.supportingInformation.identifier.type.coding</t>
+  </si>
+  <si>
+    <t>ChargeItem.supportingInformation.identifier.type.text</t>
+  </si>
+  <si>
+    <t>Bill Number</t>
+  </si>
+  <si>
+    <t>1995-1: fixed value = Bill Number</t>
+  </si>
+  <si>
+    <t>ChargeItem.supportingInformation.identifier.system</t>
+  </si>
+  <si>
+    <t>ChargeItem.supportingInformation.identifier.value</t>
+  </si>
+  <si>
+    <t>1995: source value based on AR TRANSACTION - BILL NUMBER (433-.03)</t>
+  </si>
+  <si>
+    <t>IB.ARTransaction.AccountsReceivableIEN,IB.ARTransaction.PatientIEN,IB.ARTransactionComment.PatientIEN,IB.ARTransactionDescription.PatientIEN,IB.ARTransactionFiscalYear.PatientIEN</t>
+  </si>
+  <si>
+    <t>ChargeItem.supportingInformation.identifier.period</t>
+  </si>
+  <si>
+    <t>ChargeItem.supportingInformation.identifier.assigner</t>
+  </si>
+  <si>
+    <t>ChargeItem.supportingInformation.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
   </si>
 </sst>
 </file>
@@ -1829,7 +1857,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP72"/>
+  <dimension ref="A1:AP76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1838,8 +1866,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.5234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.3046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="47.984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="17.3203125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
@@ -3162,14 +3190,16 @@
         <v>79</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AC11" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>147</v>
@@ -3193,28 +3223,26 @@
         <v>79</v>
       </c>
       <c r="AM11" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AN11" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AO11" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AN11" t="s" s="2">
+      <c r="AP11" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="AO11" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AP11" t="s" s="2">
-        <v>157</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
         <v>79</v>
       </c>
@@ -3232,21 +3260,19 @@
         <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>151</v>
-      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>79</v>
       </c>
@@ -3294,19 +3320,19 @@
         <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>79</v>
@@ -3315,35 +3341,35 @@
         <v>79</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>157</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>79</v>
@@ -3355,15 +3381,17 @@
         <v>79</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N13" s="2"/>
+      <c r="N13" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>79</v>
@@ -3400,31 +3428,31 @@
         <v>79</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>79</v>
@@ -3439,7 +3467,7 @@
         <v>79</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>79</v>
@@ -3447,44 +3475,46 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O14" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>79</v>
       </c>
@@ -3508,43 +3538,43 @@
         <v>79</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>79</v>
@@ -3556,10 +3586,10 @@
         <v>79</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>79</v>
@@ -3567,10 +3597,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3587,25 +3617,25 @@
         <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>79</v>
@@ -3630,13 +3660,13 @@
         <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>79</v>
@@ -3654,7 +3684,7 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -3678,10 +3708,10 @@
         <v>79</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>79</v>
@@ -3689,10 +3719,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3712,23 +3742,19 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>79</v>
       </c>
@@ -3752,13 +3778,13 @@
         <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>79</v>
@@ -3776,7 +3802,7 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -3788,7 +3814,7 @@
         <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>79</v>
@@ -3800,10 +3826,10 @@
         <v>79</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>79</v>
@@ -3811,21 +3837,21 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>79</v>
@@ -3837,15 +3863,17 @@
         <v>79</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M17" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N17" s="2"/>
+      <c r="N17" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>79</v>
@@ -3882,31 +3910,31 @@
         <v>79</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>79</v>
@@ -3921,7 +3949,7 @@
         <v>79</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>79</v>
@@ -3929,14 +3957,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3952,21 +3980,23 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>79</v>
       </c>
@@ -4002,19 +4032,19 @@
         <v>79</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4026,7 +4056,7 @@
         <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>79</v>
@@ -4038,10 +4068,10 @@
         <v>79</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>79</v>
@@ -4052,7 +4082,7 @@
         <v>200</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4063,10 +4093,10 @@
         <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>79</v>
@@ -4075,19 +4105,19 @@
         <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>79</v>
@@ -4097,7 +4127,7 @@
         <v>79</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>79</v>
@@ -4136,13 +4166,13 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>79</v>
@@ -4151,7 +4181,7 @@
         <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>79</v>
@@ -4174,7 +4204,7 @@
         <v>210</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4188,7 +4218,7 @@
         <v>90</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>79</v>
@@ -4197,19 +4227,19 @@
         <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="N20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>79</v>
@@ -4219,46 +4249,46 @@
         <v>79</v>
       </c>
       <c r="S20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4273,19 +4303,19 @@
         <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AO20" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>79</v>
@@ -4293,10 +4323,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4310,7 +4340,7 @@
         <v>90</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>79</v>
@@ -4319,20 +4349,18 @@
         <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4344,7 +4372,7 @@
         <v>79</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>79</v>
@@ -4380,7 +4408,7 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4395,19 +4423,19 @@
         <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>79</v>
@@ -4415,10 +4443,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4432,7 +4460,7 @@
         <v>90</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>79</v>
@@ -4441,17 +4469,15 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>162</v>
+        <v>230</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>79</v>
@@ -4464,7 +4490,7 @@
         <v>79</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>79</v>
@@ -4500,7 +4526,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4515,19 +4541,19 @@
         <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>79</v>
@@ -4535,10 +4561,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4561,15 +4587,17 @@
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>79</v>
@@ -4618,7 +4646,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4642,10 +4670,10 @@
         <v>79</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>79</v>
@@ -4653,10 +4681,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4667,7 +4695,7 @@
         <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
@@ -4676,20 +4704,18 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>252</v>
+        <v>104</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>79</v>
@@ -4738,13 +4764,13 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>79</v>
@@ -4759,13 +4785,13 @@
         <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>79</v>
@@ -4773,14 +4799,12 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4789,7 +4813,7 @@
         <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
@@ -4798,21 +4822,19 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>148</v>
+        <v>251</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>150</v>
+        <v>253</v>
       </c>
       <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>151</v>
-      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4860,7 +4882,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>147</v>
+        <v>250</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4881,24 +4903,24 @@
         <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>154</v>
+        <v>247</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>155</v>
+        <v>248</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>156</v>
+        <v>249</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>157</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>161</v>
+        <v>254</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4906,30 +4928,32 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>163</v>
+        <v>255</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>79</v>
@@ -4939,7 +4963,7 @@
         <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>79</v>
@@ -4954,13 +4978,13 @@
         <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>79</v>
+        <v>260</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>79</v>
@@ -4978,10 +5002,10 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>165</v>
+        <v>254</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>90</v>
@@ -4990,37 +5014,37 @@
         <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>79</v>
+        <v>261</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>79</v>
+        <v>262</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>166</v>
+        <v>263</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>168</v>
+        <v>265</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>135</v>
+        <v>266</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5039,18 +5063,18 @@
         <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>136</v>
+        <v>267</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>137</v>
+        <v>268</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5086,19 +5110,19 @@
         <v>79</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>172</v>
+        <v>265</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5110,7 +5134,7 @@
         <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>79</v>
@@ -5119,13 +5143,13 @@
         <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>166</v>
+        <v>272</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>79</v>
@@ -5133,18 +5157,18 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>174</v>
+        <v>273</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>79</v>
+        <v>274</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>90</v>
@@ -5153,26 +5177,22 @@
         <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>175</v>
+        <v>275</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5196,13 +5216,13 @@
         <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>179</v>
+        <v>277</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>180</v>
+        <v>278</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>181</v>
+        <v>279</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>79</v>
@@ -5220,10 +5240,10 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>182</v>
+        <v>273</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>90</v>
@@ -5241,24 +5261,24 @@
         <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>79</v>
+        <v>280</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>133</v>
+        <v>281</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>183</v>
+        <v>282</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>79</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>185</v>
+        <v>284</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5278,23 +5298,19 @@
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5318,13 +5334,13 @@
         <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>79</v>
@@ -5342,7 +5358,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5354,7 +5370,7 @@
         <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>79</v>
@@ -5366,10 +5382,10 @@
         <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>79</v>
@@ -5377,21 +5393,21 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>197</v>
+        <v>285</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
@@ -5403,15 +5419,17 @@
         <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M30" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N30" s="2"/>
+      <c r="N30" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>79</v>
@@ -5448,31 +5466,31 @@
         <v>79</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>79</v>
@@ -5487,7 +5505,7 @@
         <v>79</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>79</v>
@@ -5495,14 +5513,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>199</v>
+        <v>286</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5518,21 +5536,23 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>79</v>
       </c>
@@ -5568,19 +5588,19 @@
         <v>79</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5592,7 +5612,7 @@
         <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>79</v>
@@ -5604,10 +5624,10 @@
         <v>79</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>79</v>
@@ -5615,10 +5635,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>201</v>
+        <v>287</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5629,10 +5649,10 @@
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>79</v>
@@ -5641,19 +5661,19 @@
         <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>79</v>
@@ -5702,25 +5722,25 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>102</v>
+        <v>288</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5737,24 +5757,24 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>211</v>
+        <v>291</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>79</v>
+        <v>292</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>79</v>
@@ -5763,19 +5783,17 @@
         <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>162</v>
+        <v>293</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>212</v>
+        <v>294</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>215</v>
+        <v>296</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>79</v>
@@ -5785,7 +5803,7 @@
         <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>269</v>
+        <v>79</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>79</v>
@@ -5824,10 +5842,10 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>217</v>
+        <v>291</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>90</v>
@@ -5839,34 +5857,34 @@
         <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>270</v>
+        <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>79</v>
+        <v>297</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>219</v>
+        <v>298</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>220</v>
+        <v>299</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>79</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>222</v>
+        <v>301</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>79</v>
+        <v>302</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5885,19 +5903,17 @@
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>104</v>
+        <v>303</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>223</v>
+        <v>304</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>226</v>
+        <v>306</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>79</v>
@@ -5910,7 +5926,7 @@
         <v>79</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>79</v>
@@ -5946,7 +5962,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>228</v>
+        <v>301</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5967,28 +5983,28 @@
         <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>79</v>
+        <v>307</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>229</v>
+        <v>308</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>230</v>
+        <v>309</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>79</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>232</v>
+        <v>311</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>79</v>
+        <v>312</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5998,7 +6014,7 @@
         <v>90</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>79</v>
@@ -6007,16 +6023,16 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>162</v>
+        <v>313</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>234</v>
+        <v>315</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>235</v>
+        <v>316</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6030,7 +6046,7 @@
         <v>79</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>79</v>
@@ -6054,19 +6070,17 @@
         <v>79</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="AC35" s="2"/>
       <c r="AD35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>237</v>
+        <v>311</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6081,34 +6095,36 @@
         <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>273</v>
+        <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>274</v>
+        <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>79</v>
+        <v>318</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>241</v>
+        <v>319</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>79</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>275</v>
+        <v>321</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="D36" t="s" s="2">
-        <v>79</v>
+        <v>312</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6118,7 +6134,7 @@
         <v>90</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>79</v>
@@ -6127,15 +6143,17 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>244</v>
+        <v>323</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>245</v>
+        <v>314</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>79</v>
@@ -6184,7 +6202,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>247</v>
+        <v>311</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6199,30 +6217,30 @@
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>79</v>
+        <v>324</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>79</v>
+        <v>325</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>79</v>
+        <v>318</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>248</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>249</v>
+        <v>319</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>79</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>276</v>
+        <v>326</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>251</v>
+        <v>326</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6233,7 +6251,7 @@
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6242,20 +6260,18 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>252</v>
+        <v>327</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>253</v>
+        <v>328</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>79</v>
@@ -6304,13 +6320,13 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>256</v>
+        <v>326</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>79</v>
@@ -6325,13 +6341,13 @@
         <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>79</v>
+        <v>330</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>257</v>
+        <v>331</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>258</v>
+        <v>332</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>79</v>
@@ -6339,10 +6355,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>277</v>
+        <v>333</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>277</v>
+        <v>333</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6353,7 +6369,7 @@
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6365,13 +6381,13 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>278</v>
+        <v>158</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>279</v>
+        <v>159</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6422,19 +6438,19 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>277</v>
+        <v>160</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>79</v>
@@ -6443,13 +6459,13 @@
         <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>280</v>
+        <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>281</v>
+        <v>79</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>282</v>
+        <v>161</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>79</v>
@@ -6457,14 +6473,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>283</v>
+        <v>334</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>283</v>
+        <v>334</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6483,15 +6499,17 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>284</v>
+        <v>136</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>285</v>
+        <v>137</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>79</v>
@@ -6540,7 +6558,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>283</v>
+        <v>167</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6552,7 +6570,7 @@
         <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>79</v>
@@ -6561,13 +6579,13 @@
         <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>280</v>
+        <v>79</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>281</v>
+        <v>79</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>282</v>
+        <v>161</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>79</v>
@@ -6575,24 +6593,24 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>287</v>
+        <v>335</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>287</v>
+        <v>335</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>91</v>
@@ -6601,18 +6619,20 @@
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6621,7 +6641,7 @@
         <v>79</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>79</v>
@@ -6636,13 +6656,13 @@
         <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>179</v>
+        <v>79</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>292</v>
+        <v>79</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>293</v>
+        <v>79</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>79</v>
@@ -6660,56 +6680,56 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>294</v>
+        <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>295</v>
+        <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>281</v>
+        <v>79</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>296</v>
+        <v>133</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>297</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>299</v>
+        <v>79</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -6721,18 +6741,16 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>300</v>
+        <v>179</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>303</v>
-      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6756,13 +6774,13 @@
         <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>79</v>
+        <v>343</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>79</v>
+        <v>344</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>79</v>
@@ -6780,13 +6798,13 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>79</v>
@@ -6801,13 +6819,13 @@
         <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>304</v>
+        <v>345</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>79</v>
@@ -6815,14 +6833,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6838,16 +6856,16 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>186</v>
+        <v>348</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>308</v>
+        <v>349</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>309</v>
+        <v>350</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6874,13 +6892,13 @@
         <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>310</v>
+        <v>79</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>311</v>
+        <v>79</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>312</v>
+        <v>79</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>79</v>
@@ -6898,7 +6916,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>90</v>
@@ -6919,24 +6937,24 @@
         <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>316</v>
+        <v>353</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6959,15 +6977,17 @@
         <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>162</v>
+        <v>237</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>163</v>
+        <v>355</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>79</v>
@@ -7016,7 +7036,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>165</v>
+        <v>354</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7028,7 +7048,7 @@
         <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
@@ -7037,13 +7057,13 @@
         <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>79</v>
+        <v>351</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>166</v>
+        <v>358</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>79</v>
@@ -7051,21 +7071,21 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -7077,16 +7097,16 @@
         <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>136</v>
+        <v>237</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>137</v>
+        <v>360</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>169</v>
+        <v>361</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>139</v>
+        <v>362</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7124,31 +7144,31 @@
         <v>79</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>172</v>
+        <v>359</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>79</v>
@@ -7160,10 +7180,10 @@
         <v>79</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>166</v>
+        <v>358</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>79</v>
@@ -7171,10 +7191,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>319</v>
+        <v>363</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>319</v>
+        <v>363</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7185,7 +7205,7 @@
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
@@ -7194,23 +7214,21 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>203</v>
+        <v>364</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>204</v>
+        <v>365</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7258,13 +7276,13 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>207</v>
+        <v>363</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>79</v>
@@ -7282,10 +7300,10 @@
         <v>79</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>208</v>
+        <v>367</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>79</v>
@@ -7293,10 +7311,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>320</v>
+        <v>368</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>320</v>
+        <v>368</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7310,7 +7328,7 @@
         <v>90</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>79</v>
@@ -7319,20 +7337,18 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>162</v>
+        <v>369</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>212</v>
+        <v>370</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>213</v>
+        <v>371</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7380,7 +7396,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>217</v>
+        <v>368</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7392,22 +7408,22 @@
         <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>321</v>
+        <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>322</v>
+        <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>323</v>
+        <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>219</v>
+        <v>373</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>79</v>
@@ -7415,21 +7431,21 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>324</v>
+        <v>374</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>324</v>
+        <v>374</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7441,18 +7457,18 @@
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>326</v>
+        <v>179</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>327</v>
+        <v>375</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7476,13 +7492,13 @@
         <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>79</v>
+        <v>378</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>79</v>
+        <v>379</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>79</v>
@@ -7500,13 +7516,13 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>324</v>
+        <v>374</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>79</v>
@@ -7521,28 +7537,28 @@
         <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>330</v>
+        <v>79</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>332</v>
+        <v>380</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>333</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>334</v>
+        <v>381</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>334</v>
+        <v>381</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>335</v>
+        <v>79</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7558,21 +7574,21 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>336</v>
+        <v>382</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7620,7 +7636,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>334</v>
+        <v>381</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7641,28 +7657,28 @@
         <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>341</v>
+        <v>386</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>342</v>
+        <v>79</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>343</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>344</v>
+        <v>387</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>344</v>
+        <v>387</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7678,19 +7694,19 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7728,17 +7744,19 @@
         <v>79</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AC49" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>344</v>
+        <v>387</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7759,30 +7777,28 @@
         <v>79</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>351</v>
+        <v>79</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>281</v>
+        <v>392</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>352</v>
+        <v>79</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>353</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7792,25 +7808,25 @@
         <v>90</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>356</v>
+        <v>157</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>347</v>
+        <v>394</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>348</v>
+        <v>395</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>349</v>
+        <v>396</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7860,7 +7876,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>344</v>
+        <v>393</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7875,30 +7891,30 @@
         <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>358</v>
+        <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>351</v>
+        <v>79</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>281</v>
+        <v>79</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>352</v>
+        <v>79</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>353</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7909,7 +7925,7 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -7918,18 +7934,20 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>79</v>
@@ -7978,13 +7996,13 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>79</v>
@@ -7999,24 +8017,24 @@
         <v>79</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>363</v>
+        <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>79</v>
+        <v>353</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>366</v>
+        <v>402</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>366</v>
+        <v>402</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8030,24 +8048,26 @@
         <v>90</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>162</v>
+        <v>323</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>163</v>
+        <v>403</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>79</v>
@@ -8096,7 +8116,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>165</v>
+        <v>402</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8108,13 +8128,13 @@
         <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>79</v>
+        <v>407</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8123,7 +8143,7 @@
         <v>79</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>79</v>
@@ -8131,14 +8151,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8157,16 +8177,16 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>137</v>
+        <v>409</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>169</v>
+        <v>410</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>139</v>
+        <v>411</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8192,13 +8212,13 @@
         <v>79</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>79</v>
+        <v>412</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>79</v>
+        <v>413</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>79</v>
@@ -8216,7 +8236,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>172</v>
+        <v>408</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8228,7 +8248,7 @@
         <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
@@ -8237,28 +8257,28 @@
         <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>79</v>
+        <v>414</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>79</v>
+        <v>415</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>166</v>
+        <v>416</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>79</v>
+        <v>417</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>368</v>
+        <v>418</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>368</v>
+        <v>418</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8271,26 +8291,22 @@
         <v>79</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>136</v>
+        <v>419</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8338,7 +8354,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>372</v>
+        <v>418</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8350,7 +8366,7 @@
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>79</v>
@@ -8359,24 +8375,24 @@
         <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>79</v>
+        <v>422</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>79</v>
+        <v>415</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>133</v>
+        <v>423</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>79</v>
+        <v>417</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>373</v>
+        <v>424</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>373</v>
+        <v>424</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8399,13 +8415,13 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>186</v>
+        <v>425</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>374</v>
+        <v>426</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>375</v>
+        <v>427</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8432,13 +8448,13 @@
         <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>376</v>
+        <v>428</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>377</v>
+        <v>429</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>79</v>
@@ -8456,7 +8472,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>373</v>
+        <v>424</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8477,13 +8493,13 @@
         <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>378</v>
+        <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>281</v>
+        <v>79</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>379</v>
+        <v>430</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>79</v>
@@ -8491,10 +8507,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>380</v>
+        <v>431</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>380</v>
+        <v>431</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8502,10 +8518,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8514,18 +8530,20 @@
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>381</v>
+        <v>432</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>382</v>
+        <v>433</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>79</v>
@@ -8574,13 +8592,13 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>380</v>
+        <v>431</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>79</v>
@@ -8595,24 +8613,24 @@
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>384</v>
+        <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>385</v>
+        <v>79</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>386</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>387</v>
+        <v>436</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>387</v>
+        <v>436</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8623,7 +8641,7 @@
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -8635,17 +8653,15 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>252</v>
+        <v>437</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>388</v>
+        <v>438</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>79</v>
@@ -8694,13 +8710,13 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>387</v>
+        <v>436</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>79</v>
@@ -8715,13 +8731,13 @@
         <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>384</v>
+        <v>440</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>133</v>
+        <v>441</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>391</v>
+        <v>442</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>79</v>
@@ -8729,10 +8745,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>392</v>
+        <v>443</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>392</v>
+        <v>443</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8743,7 +8759,7 @@
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -8755,17 +8771,15 @@
         <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>252</v>
+        <v>444</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>393</v>
+        <v>445</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>79</v>
@@ -8814,13 +8828,13 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>392</v>
+        <v>443</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>79</v>
@@ -8835,13 +8849,13 @@
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>79</v>
+        <v>447</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>391</v>
+        <v>79</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>79</v>
@@ -8849,10 +8863,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>396</v>
+        <v>448</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>396</v>
+        <v>448</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8875,17 +8889,15 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>252</v>
+        <v>157</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>397</v>
+        <v>158</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>79</v>
@@ -8934,7 +8946,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>396</v>
+        <v>160</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -8946,7 +8958,7 @@
         <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>79</v>
@@ -8958,10 +8970,10 @@
         <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>400</v>
+        <v>79</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>79</v>
@@ -8969,21 +8981,21 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>401</v>
+        <v>449</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>401</v>
+        <v>449</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -8992,19 +9004,19 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>402</v>
+        <v>136</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>403</v>
+        <v>137</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>404</v>
+        <v>163</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>405</v>
+        <v>139</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9042,31 +9054,31 @@
         <v>79</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>401</v>
+        <v>167</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>79</v>
@@ -9078,10 +9090,10 @@
         <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>79</v>
@@ -9089,10 +9101,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>407</v>
+        <v>450</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>407</v>
+        <v>450</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9103,7 +9115,7 @@
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -9115,16 +9127,16 @@
         <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>408</v>
+        <v>451</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>409</v>
+        <v>452</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>410</v>
+        <v>453</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9150,13 +9162,13 @@
         <v>79</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>310</v>
+        <v>79</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>411</v>
+        <v>79</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>412</v>
+        <v>79</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>79</v>
@@ -9174,16 +9186,16 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>407</v>
+        <v>454</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>79</v>
+        <v>455</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>102</v>
@@ -9201,7 +9213,7 @@
         <v>79</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>413</v>
+        <v>133</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>79</v>
@@ -9209,10 +9221,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>414</v>
+        <v>456</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>414</v>
+        <v>456</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9232,19 +9244,19 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>415</v>
+        <v>104</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>417</v>
+        <v>458</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>418</v>
+        <v>459</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9270,13 +9282,13 @@
         <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>79</v>
+        <v>460</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>79</v>
+        <v>461</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>79</v>
@@ -9294,7 +9306,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>414</v>
+        <v>462</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9318,10 +9330,10 @@
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>419</v>
+        <v>79</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>79</v>
@@ -9329,10 +9341,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>420</v>
+        <v>463</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>420</v>
+        <v>463</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9352,19 +9364,19 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>421</v>
+        <v>148</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>422</v>
+        <v>464</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>423</v>
+        <v>465</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>424</v>
+        <v>466</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9414,7 +9426,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>420</v>
+        <v>467</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9438,10 +9450,10 @@
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>79</v>
@@ -9449,10 +9461,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>426</v>
+        <v>468</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>426</v>
+        <v>468</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9475,17 +9487,15 @@
         <v>79</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>427</v>
+        <v>158</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>79</v>
@@ -9534,7 +9544,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>426</v>
+        <v>160</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9546,7 +9556,7 @@
         <v>79</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>79</v>
@@ -9561,7 +9571,7 @@
         <v>79</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>79</v>
@@ -9569,21 +9579,21 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>430</v>
+        <v>469</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>430</v>
+        <v>469</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
@@ -9592,19 +9602,19 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>431</v>
+        <v>136</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>432</v>
+        <v>137</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>433</v>
+        <v>163</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>434</v>
+        <v>139</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9642,31 +9652,31 @@
         <v>79</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>430</v>
+        <v>167</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>79</v>
@@ -9678,21 +9688,21 @@
         <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>385</v>
+        <v>161</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>386</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>435</v>
+        <v>470</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>435</v>
+        <v>470</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9706,27 +9716,29 @@
         <v>90</v>
       </c>
       <c r="H66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I66" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>356</v>
+        <v>110</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>436</v>
+        <v>169</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>437</v>
+        <v>170</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>79</v>
       </c>
@@ -9750,13 +9762,13 @@
         <v>79</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>79</v>
@@ -9774,7 +9786,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>435</v>
+        <v>176</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -9789,19 +9801,19 @@
         <v>102</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>439</v>
+        <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>440</v>
+        <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>79</v>
@@ -9809,10 +9821,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>441</v>
+        <v>471</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>441</v>
+        <v>471</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9823,7 +9835,7 @@
         <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
@@ -9832,21 +9844,23 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>442</v>
+        <v>180</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>443</v>
+        <v>181</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="O67" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>79</v>
       </c>
@@ -9870,13 +9884,13 @@
         <v>79</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>310</v>
+        <v>184</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>445</v>
+        <v>185</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>446</v>
+        <v>186</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>79</v>
@@ -9894,13 +9908,13 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>441</v>
+        <v>187</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>79</v>
@@ -9915,24 +9929,24 @@
         <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>447</v>
+        <v>79</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>448</v>
+        <v>188</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>449</v>
+        <v>177</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>451</v>
+        <v>472</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>451</v>
+        <v>472</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9943,7 +9957,7 @@
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -9955,13 +9969,13 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>452</v>
+        <v>157</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>453</v>
+        <v>158</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>454</v>
+        <v>159</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10012,19 +10026,19 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>451</v>
+        <v>160</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>79</v>
@@ -10033,35 +10047,35 @@
         <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>455</v>
+        <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>456</v>
+        <v>161</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -10073,15 +10087,17 @@
         <v>79</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>458</v>
+        <v>136</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>459</v>
+        <v>137</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>79</v>
@@ -10106,43 +10122,43 @@
         <v>79</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>310</v>
+        <v>79</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>461</v>
+        <v>79</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>462</v>
+        <v>79</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>457</v>
+        <v>167</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>79</v>
@@ -10157,7 +10173,7 @@
         <v>79</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>463</v>
+        <v>161</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>79</v>
@@ -10165,10 +10181,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10191,18 +10207,20 @@
         <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>465</v>
+        <v>192</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>466</v>
+        <v>193</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>467</v>
+        <v>194</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="O70" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10250,7 +10268,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>464</v>
+        <v>197</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10274,10 +10292,10 @@
         <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="AP70" t="s" s="2">
         <v>79</v>
@@ -10285,10 +10303,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10299,28 +10317,32 @@
         <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>470</v>
+        <v>157</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>471</v>
+        <v>201</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10329,7 +10351,7 @@
         <v>79</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>79</v>
+        <v>476</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>79</v>
@@ -10368,13 +10390,13 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>469</v>
+        <v>206</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>79</v>
@@ -10383,19 +10405,19 @@
         <v>102</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>79</v>
+        <v>477</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>473</v>
+        <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>474</v>
+        <v>208</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>475</v>
+        <v>209</v>
       </c>
       <c r="AP71" t="s" s="2">
         <v>79</v>
@@ -10403,10 +10425,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10417,7 +10439,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10426,19 +10448,23 @@
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>477</v>
+        <v>104</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>478</v>
+        <v>211</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10450,7 +10476,7 @@
         <v>79</v>
       </c>
       <c r="T72" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="U72" t="s" s="2">
         <v>79</v>
@@ -10486,13 +10512,13 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>476</v>
+        <v>216</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>79</v>
@@ -10507,20 +10533,498 @@
         <v>79</v>
       </c>
       <c r="AM72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AP72" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK73" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="AN72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP72" t="s" s="2">
+      <c r="AL73" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AP73" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AP74" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AP75" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AP76" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP72">
+  <autoFilter ref="A1:AP76">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10530,7 +11034,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI71">
+  <conditionalFormatting sqref="A2:AI75">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-DebtPortalChargeIteminterest.xlsx
+++ b/docs/StructureDefinition-DebtPortalChargeIteminterest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:24:02+00:00</t>
+    <t>2025-05-08T08:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DebtPortalChargeIteminterest.xlsx
+++ b/docs/StructureDefinition-DebtPortalChargeIteminterest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.11</t>
+    <t>1.5.16</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:54:46+00:00</t>
+    <t>2025-05-12T19:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DebtPortalChargeIteminterest.xlsx
+++ b/docs/StructureDefinition-DebtPortalChargeIteminterest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.16</t>
+    <t>1.5.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T19:54:30+00:00</t>
+    <t>2025-05-23T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1030,7 +1030,10 @@
     <t>1997: source value based on AR TRANSACTION - TRANSACTION DATE (433-11)</t>
   </si>
   <si>
-    <t>IB.ARTransaction.TransactionDateTime,IB.ARTransactionComment.TransactionDateTime,IB.ARTransactionDescription.TransactionDateTime,IB.ARTransactionFiscalYear.TransactionDateTime</t>
+    <t>IB.ARTransaction.TransactionDateTime
+IB.ARTransactionComment.TransactionDateTime
+IB.ARTransactionDescription.TransactionDateTime
+IB.ARTransactionFiscalYear.TransactionDateTime</t>
   </si>
   <si>
     <t>ChargeItem.performer</t>
@@ -1516,7 +1519,11 @@
     <t>1995: source value based on AR TRANSACTION - BILL NUMBER (433-.03)</t>
   </si>
   <si>
-    <t>IB.ARTransaction.AccountsReceivableIEN,IB.ARTransaction.PatientIEN,IB.ARTransactionComment.PatientIEN,IB.ARTransactionDescription.PatientIEN,IB.ARTransactionFiscalYear.PatientIEN</t>
+    <t>IB.ARTransaction.AccountsReceivableIEN
+IB.ARTransaction.PatientIEN
+IB.ARTransactionComment.PatientIEN
+IB.ARTransactionDescription.PatientIEN
+IB.ARTransactionFiscalYear.PatientIEN</t>
   </si>
   <si>
     <t>ChargeItem.supportingInformation.identifier.period</t>
@@ -1902,7 +1909,7 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="124.5" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="150.2265625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="40.65234375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="39.109375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="87.9765625" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-DebtPortalChargeIteminterest.xlsx
+++ b/docs/StructureDefinition-DebtPortalChargeIteminterest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.23</t>
+    <t>1.5.30</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:28:56+00:00</t>
+    <t>2025-05-25T09:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DebtPortalChargeIteminterest.xlsx
+++ b/docs/StructureDefinition-DebtPortalChargeIteminterest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.30</t>
+    <t>1.6.49</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-25T09:23:19+00:00</t>
+    <t>2025-06-13T16:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
